--- a/Uedaが往く/仕様/ガントチャート.xlsx
+++ b/Uedaが往く/仕様/ガントチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが往く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3CF2DA-9405-439B-85CC-36A6416D2714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBDACC5-4CEF-47E6-8C4B-CB74BA85AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="1320" windowWidth="21600" windowHeight="12720" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="840" yWindow="3720" windowWidth="17820" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="コピー元" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -1529,7 +1529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F35" sqref="F35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -1853,6 +1853,9 @@
     <row r="35" spans="1:9" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A35" s="24" t="s">
         <v>89</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="G35" s="28"/>
     </row>
@@ -2036,17 +2039,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2281,6 +2273,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
@@ -2290,17 +2293,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2317,4 +2309,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Uedaが往く/仕様/ガントチャート.xlsx
+++ b/Uedaが往く/仕様/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが往く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBDACC5-4CEF-47E6-8C4B-CB74BA85AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB38EF-49AC-4926-97A1-F7FFB52ABF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="3720" windowWidth="17820" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -1527,9 +1527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4241A-66ED-4D56-8CA5-5637D565307D}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
@@ -2039,6 +2039,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2273,17 +2284,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
@@ -2293,6 +2293,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2309,15 +2320,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Uedaが往く/仕様/ガントチャート.xlsx
+++ b/Uedaが往く/仕様/ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが往く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB38EF-49AC-4926-97A1-F7FFB52ABF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D38B6-6CFC-46F4-B998-E9FD5D88F5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="3720" windowWidth="17820" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="3375" yWindow="3525" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="コピー元" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -377,23 +377,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>状態遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ選択</t>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンボ攻撃</t>
     <rPh sb="3" eb="5">
       <t>コウゲキ</t>
@@ -401,13 +384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チャージ攻撃</t>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掴み</t>
     <rPh sb="0" eb="1">
       <t>ツカ</t>
@@ -422,13 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>武器</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回復アイテム</t>
     <rPh sb="0" eb="2">
       <t>カイフク</t>
@@ -460,13 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シェーダー導入</t>
-    <rPh sb="5" eb="7">
-      <t>ドウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7/8～7/21</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -476,6 +438,14 @@
   </si>
   <si>
     <t>パンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1525,7 +1495,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4241A-66ED-4D56-8CA5-5637D565307D}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1566,7 +1536,7 @@
     <row r="2" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1574,7 +1544,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="6" t="s">
@@ -1646,7 +1616,7 @@
     </row>
     <row r="9" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>64</v>
@@ -1678,7 +1648,7 @@
     </row>
     <row r="13" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>64</v>
@@ -1796,7 +1766,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
         <v>52</v>
       </c>
@@ -1805,7 +1775,7 @@
       </c>
       <c r="G29" s="28"/>
     </row>
-    <row r="30" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A30" s="24" t="s">
         <v>67</v>
       </c>
@@ -1814,7 +1784,7 @@
       </c>
       <c r="G30" s="28"/>
     </row>
-    <row r="31" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A31" s="24" t="s">
         <v>53</v>
       </c>
@@ -1823,7 +1793,7 @@
       </c>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>56</v>
       </c>
@@ -1832,7 +1802,7 @@
       </c>
       <c r="G32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A33" s="24" t="s">
         <v>55</v>
       </c>
@@ -1841,187 +1811,201 @@
       </c>
       <c r="G33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="28"/>
     </row>
-    <row r="35" spans="1:9" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A35" s="24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F35" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A37" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="28">
-        <v>45494</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="13" t="s">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="13" t="s">
         <v>69</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A43" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-    </row>
-    <row r="44" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="13" t="s">
+    <row r="43" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A45" s="24"/>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A44" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A45" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="13" t="s">
-        <v>75</v>
-      </c>
+    <row r="46" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A47" s="24" t="s">
-        <v>76</v>
-      </c>
+    <row r="47" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A48" s="24" t="s">
-        <v>58</v>
-      </c>
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
     </row>
-    <row r="49" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A50" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:14" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-    </row>
-    <row r="53" spans="1:14" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="27"/>
-    </row>
-    <row r="54" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" s="27"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:14" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-    </row>
-    <row r="56" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4" t="s">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+    </row>
+    <row r="54" spans="1:14" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-    </row>
-    <row r="58" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="L58" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="L59" t="s">
-        <v>72</v>
-      </c>
+      <c r="L59" s="25"/>
     </row>
     <row r="60" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A60" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="M60" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="L60" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="M61" t="s">
+      <c r="M61" s="25"/>
+    </row>
+    <row r="62" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="M62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N62" s="25"/>
-    </row>
     <row r="63" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="N63" t="s">
+      <c r="N63" s="25"/>
+    </row>
+    <row r="64" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="N64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:14" collapsed="1" x14ac:dyDescent="0.4"/>
+    <row r="65" collapsed="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2039,17 +2023,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2284,6 +2257,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
@@ -2293,17 +2277,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2320,4 +2293,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Uedaが往く/仕様/ガントチャート.xlsx
+++ b/Uedaが往く/仕様/ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが往く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D38B6-6CFC-46F4-B998-E9FD5D88F5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25728CF-C941-478D-A1A0-9D713C4DAEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3525" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="コピー元" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="91">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -398,13 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回復アイテム</t>
-    <rPh sb="0" eb="2">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アニメーション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,6 +439,41 @@
   </si>
   <si>
     <t>ガード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ読み込み</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライト調整</t>
+    <rPh sb="3" eb="5">
+      <t>チョウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -585,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,9 +690,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1495,20 +1520,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4241A-66ED-4D56-8CA5-5637D565307D}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="45.75" customWidth="1"/>
-    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>46</v>
       </c>
@@ -1524,19 +1551,21 @@
         <v>2</v>
       </c>
       <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1544,19 +1573,21 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1572,8 +1603,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
         <v>49</v>
       </c>
@@ -1584,13 +1617,13 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1598,7 +1631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1614,15 +1647,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1630,7 +1663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1638,7 +1671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1646,7 +1679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1654,7 +1687,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1662,7 +1695,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1670,7 +1703,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
@@ -1700,7 +1733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
@@ -1738,7 +1771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>61</v>
       </c>
@@ -1760,7 +1793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
         <v>70</v>
       </c>
@@ -1770,242 +1803,325 @@
       <c r="A29" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="28"/>
+      <c r="F29" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="28"/>
+      <c r="F30" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="28"/>
+      <c r="F31" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="28"/>
-    </row>
-    <row r="33" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="F32" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A33" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="28"/>
-    </row>
-    <row r="34" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="F33" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="28"/>
-    </row>
-    <row r="35" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A35" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="28"/>
-    </row>
-    <row r="36" spans="1:9" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G37" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A39" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="H39" s="24"/>
+      <c r="H39" s="13"/>
       <c r="I39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="24"/>
+      <c r="H40" t="s">
+        <v>64</v>
+      </c>
       <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+    </row>
+    <row r="41" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="H41" t="s">
+        <v>64</v>
+      </c>
       <c r="I41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
         <v>76</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A43" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A44" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A45" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-    </row>
-    <row r="45" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
+      <c r="H45" s="24"/>
+      <c r="I45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A46" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A47" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+    </row>
+    <row r="47" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A47" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
-    </row>
-    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A48" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A49" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="26" t="s">
-        <v>78</v>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="27"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A51" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
-    </row>
-    <row r="52" spans="1:14" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A52" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
-    </row>
-    <row r="54" spans="1:14" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="25" t="s">
-        <v>50</v>
-      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A54" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A55" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A56" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="25" t="s">
+    <row r="57" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A57" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:15" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+    </row>
+    <row r="63" spans="1:15" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="1:15" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-    </row>
-    <row r="59" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="L59" s="25"/>
-    </row>
-    <row r="60" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="25" t="s">
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+    </row>
+    <row r="65" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="N65" s="25"/>
+    </row>
+    <row r="66" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N66" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="M61" s="25"/>
-    </row>
-    <row r="62" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="M62" t="s">
+    <row r="67" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="O67" s="25"/>
+    </row>
+    <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="O68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="N63" s="25"/>
-    </row>
-    <row r="64" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="N64" t="s">
+    <row r="69" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="P69" s="25"/>
+    </row>
+    <row r="70" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="P70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" collapsed="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="1:16" collapsed="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,6 +2139,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2257,17 +2384,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
@@ -2277,6 +2393,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2293,15 +2420,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Uedaが往く/仕様/ガントチャート.xlsx
+++ b/Uedaが往く/仕様/ガントチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが往く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25728CF-C941-478D-A1A0-9D713C4DAEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C5A2DE-87C6-4FA3-9C38-2BB7C5563213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="コピー元" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -222,9 +222,6 @@
     <t>製作期間：7/8～9/9</t>
   </si>
   <si>
-    <t>8/6～8/25</t>
-  </si>
-  <si>
     <t>8/26～9/9</t>
   </si>
   <si>
@@ -426,10 +423,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7/21～8/5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パンチ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -474,6 +467,14 @@
     <rPh sb="3" eb="5">
       <t>チョウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/21～8/11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8/12～8/25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1524,7 +1525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K39" sqref="K39"/>
+      <selection pane="topRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -1565,7 +1566,7 @@
     <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1573,17 +1574,17 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="6" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O2" s="5"/>
     </row>
@@ -1608,7 +1609,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1625,10 +1626,10 @@
     </row>
     <row r="6" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
@@ -1636,245 +1637,245 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:15" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A24" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A26" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A27" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A30" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A31" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A33" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A35" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:11" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A37" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11" collapsed="1" x14ac:dyDescent="0.4">
@@ -1888,7 +1889,7 @@
     </row>
     <row r="39" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A39" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="24"/>
@@ -1897,10 +1898,10 @@
     </row>
     <row r="40" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A40" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -1908,10 +1909,10 @@
     </row>
     <row r="41" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A41" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
@@ -1919,7 +1920,7 @@
     </row>
     <row r="42" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A42" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
@@ -1928,31 +1929,31 @@
     </row>
     <row r="43" spans="1:11" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A43" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A44" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A46" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -1961,7 +1962,7 @@
     </row>
     <row r="47" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A47" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
@@ -1970,7 +1971,7 @@
     </row>
     <row r="48" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A48" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -1979,7 +1980,7 @@
     </row>
     <row r="49" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A49" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
@@ -1988,7 +1989,7 @@
     </row>
     <row r="50" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A50" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -1997,7 +1998,7 @@
     </row>
     <row r="51" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A51" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
@@ -2006,16 +2007,18 @@
     </row>
     <row r="52" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A52" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
+      <c r="J52" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A53" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="54" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A54" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="55" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A55" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -2042,7 +2045,7 @@
     </row>
     <row r="56" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A56" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="57" spans="1:15" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A57" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="62" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A62" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
@@ -2099,10 +2102,10 @@
     </row>
     <row r="66" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A66" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -2110,7 +2113,7 @@
     </row>
     <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="O68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -2118,7 +2121,7 @@
     </row>
     <row r="70" spans="1:16" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="P70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:16" collapsed="1" x14ac:dyDescent="0.4"/>
@@ -2139,17 +2142,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2384,6 +2376,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
@@ -2393,17 +2396,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2420,4 +2412,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>